--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5F6BB-E966-44F8-A6DB-805039CFEB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="226">
   <si>
     <t>a</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,9 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ξ</t>
-  </si>
-  <si>
     <t>∑</t>
   </si>
   <si>
@@ -208,18 +206,10 @@
     <t>π</t>
   </si>
   <si>
-    <t>p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>psi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>phi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,9 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>□</t>
-  </si>
-  <si>
     <t>integration</t>
   </si>
   <si>
@@ -383,10 +370,6 @@
   </si>
   <si>
     <t>\Rightarrow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -440,48 +423,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>∂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>^2/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>∂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t^2</t>
-    </r>
-  </si>
-  <si>
     <t>邮箱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -522,10 +463,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>∫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -557,56 +494,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Xi;ksai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>▽^2 -1/c^2   (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="★日文毛笔"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>∂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>^2 )/(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="★日文毛笔"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>∂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t^2 )</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>infinity;wuqiong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -819,14 +706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ε_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ_0ε_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Series[, {x, 0, 5}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -860,19 +739,6 @@
   <si>
     <t>算符</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>∂</t>
-    </r>
   </si>
   <si>
     <r>
@@ -889,30 +755,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Hamiltonian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hami</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\hbar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\alpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\beta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Delta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\epsilon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\eta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\gamma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\xi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\kappa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\lambda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\miu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\nu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\omega</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\pi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\phi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\varphi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\psi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\rho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\sigma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\theta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\tau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\chi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\zeta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\partial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\frac{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="1"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>ħ</t>
+      <t>partial</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <family val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>∂</t>
+      <t>}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">\partial </t>
     </r>
     <r>
       <rPr>
@@ -923,68 +918,54 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>t}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\frac{\partial^2}{\partial t^2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\nabla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
       </rPr>
-      <t>∂</t>
+      <t>nabla</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
-      <t>t</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>∇</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>∇</t>
+      <t>\</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
       </rPr>
-      <t>·</t>
+      <t>times</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -993,23 +974,19 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
-      <t>∇</t>
+      <t>\</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
       </rPr>
-      <t>×</t>
+      <t>nabla\cdot</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1018,12 +995,19 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
-      <t>∇</t>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>nabla</t>
     </r>
     <r>
       <rPr>
@@ -1039,23 +1023,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ĥ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamiltonian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hami</t>
+    <t>\square</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\widehat{H}</t>
+  </si>
+  <si>
+    <t>\int_{}^{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,14 +1098,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1135,6 +1110,38 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1157,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,10 +1193,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,7 +1242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1264,7 +1286,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1302,7 +1330,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1590,854 +1624,919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="13" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" ht="99.75">
+      <c r="A1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="B33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="87.75">
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="87.75">
+      <c r="B37" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="87.75">
+      <c r="B38" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="87.75">
+      <c r="B39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="9" customFormat="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="B46" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="B47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="7" customFormat="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="7" customFormat="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="7" customFormat="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="10">
+        <v>10</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="D67" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="F67" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+    <row r="68" spans="1:8" s="9" customFormat="1">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="11">
-        <v>10</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F67" s="11" t="s">
+      <c r="H69" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5F6BB-E966-44F8-A6DB-805039CFEB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{73F5F6BB-E966-44F8-A6DB-805039CFEB27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{155FED1A-983A-4FF5-8DF9-8E966B7CC5F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,9 +716,6 @@
   <si>
     <t>schr</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schrödinger</t>
   </si>
   <si>
     <t>Schrodinger</t>
@@ -1031,6 +1028,10 @@
   </si>
   <si>
     <t>\int_{}^{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schrödinger</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1196,9 +1197,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,6 +1204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,42 +1628,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="10.75" style="1"/>
+    <col min="7" max="7" width="13.88671875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="99.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" ht="96.6">
+      <c r="A1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>140</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1672,7 +1673,7 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>158</v>
@@ -1683,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -1695,15 +1696,15 @@
         <v>33</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="10" t="s">
@@ -1713,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>7</v>
@@ -1736,7 +1737,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
@@ -1753,7 +1754,7 @@
         <v>122</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>9</v>
@@ -1769,7 +1770,7 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
@@ -1789,7 +1790,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>27</v>
@@ -1800,16 +1801,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>193</v>
+      <c r="G11" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1833,7 +1834,7 @@
         <v>146</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>151</v>
@@ -1848,7 +1849,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>61</v>
@@ -1862,7 +1863,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>42</v>
@@ -1877,7 +1878,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>62</v>
@@ -1893,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
@@ -1907,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>45</v>
@@ -1924,7 +1925,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>48</v>
@@ -1936,10 +1937,10 @@
         <v>50</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>51</v>
@@ -1956,7 +1957,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>153</v>
@@ -1979,7 +1980,7 @@
         <v>54</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>55</v>
@@ -1994,7 +1995,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>56</v>
@@ -2011,7 +2012,7 @@
         <v>58</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>157</v>
@@ -2031,7 +2032,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
@@ -2061,7 +2062,7 @@
         <v>177</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>176</v>
@@ -2080,7 +2081,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>29</v>
@@ -2103,26 +2104,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="87.75">
+    <row r="35" spans="1:16" ht="83.4">
       <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="H35" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>175</v>
@@ -2130,38 +2131,38 @@
       <c r="C36" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="87.75">
+      <c r="F36" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="83.4">
       <c r="B37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="87.75">
+      <c r="F37" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="83.4">
       <c r="B38" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="87.75">
+      <c r="F38" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="83.4">
       <c r="B39" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2172,21 +2173,21 @@
         <v>73</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="9" customFormat="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G41" s="10"/>
     </row>
@@ -2201,7 +2202,7 @@
         <v>74</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>106</v>
@@ -2351,13 +2352,13 @@
     <row r="54" spans="1:10" s="9" customFormat="1">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G54" s="10"/>
     </row>
@@ -2516,12 +2517,12 @@
         <v>181</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="G68" s="10"/>
     </row>
